--- a/ipl-2020-21-1210595/kolkata knight riders vs kings xi punjab 46th match 1216520/Bowling2.xlsx
+++ b/ipl-2020-21-1210595/kolkata knight riders vs kings xi punjab 46th match 1216520/Bowling2.xlsx
@@ -522,107 +522,107 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Murugan Ashwin</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>27</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>6.75</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Chris Jordan</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>25</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>6.25</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>5.00</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
